--- a/biology/Biologie cellulaire et moléculaire/NDPK-C/NDPK-C.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/NDPK-C/NDPK-C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NDPK-C, pour « nucleoside diphosphate kinase C », ou NME3 est l'une des nucléoside diphosphate kinases. Son gène est NME3 situé le chromosome 16 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa structure est proche de celles des NDPK-A et NDPK-B. Il forme un hexamère avec le NDPK-A[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa structure est proche de celles des NDPK-A et NDPK-B. Il forme un hexamère avec le NDPK-A.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il intervient dans la régulation des récepteurs bêta adréanergiques et dans la contraction du muscle cardiaque. Il favoriserait la conservation de la fonction systolique en cas d'insuffisance cardiaque en diminuant le taux d'AMP cyclique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intervient dans la régulation des récepteurs bêta adréanergiques et dans la contraction du muscle cardiaque. Il favoriserait la conservation de la fonction systolique en cas d'insuffisance cardiaque en diminuant le taux d'AMP cyclique.
 </t>
         </is>
       </c>
